--- a/01-MULTIPHASE/xls/2024-06-typical-krel-pcap.xlsx
+++ b/01-MULTIPHASE/xls/2024-06-typical-krel-pcap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\EDFM\01-MULTIPHASE\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1615074c83fac315/DRIVE/Renato/05_Doutorado/EDFM-GIT/01-MULTIPHASE/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB29707-205C-4403-BF9C-42AAE560FAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ADB29707-205C-4403-BF9C-42AAE560FAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F6DC2E3-1A64-4D8A-9FFF-0AACE84DCE94}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMS" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8230,7 +8230,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8268,7 +8268,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330568"/>
@@ -8367,7 +8367,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330208"/>
@@ -8402,7 +8402,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8418,7 +8418,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8432,7 +8432,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8494,7 +8494,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12466,7 +12466,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12504,7 +12504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330568"/>
@@ -12585,7 +12585,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12623,7 +12623,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330208"/>
@@ -12665,7 +12665,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12702,7 +12702,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12716,7 +12716,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12778,7 +12778,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14185,7 +14185,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14223,7 +14223,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330568"/>
@@ -14304,7 +14304,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14342,7 +14342,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330208"/>
@@ -14384,7 +14384,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14421,7 +14421,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14435,7 +14435,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15851,7 +15851,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15889,7 +15889,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330568"/>
@@ -15986,7 +15986,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330208"/>
@@ -16021,7 +16021,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16037,7 +16037,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16051,7 +16051,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16113,7 +16113,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17490,7 +17490,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17528,7 +17528,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330568"/>
@@ -17609,7 +17609,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17647,7 +17647,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330208"/>
@@ -17689,7 +17689,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17726,7 +17726,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17740,7 +17740,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19156,7 +19156,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19194,7 +19194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330568"/>
@@ -19291,7 +19291,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330208"/>
@@ -19326,7 +19326,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19342,7 +19342,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19356,7 +19356,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19418,7 +19418,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -20789,7 +20789,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20827,7 +20827,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330568"/>
@@ -20908,7 +20908,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20946,7 +20946,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330208"/>
@@ -20988,7 +20988,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -21025,7 +21025,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21039,7 +21039,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -22455,7 +22455,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22493,7 +22493,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330568"/>
@@ -22591,7 +22591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511330208"/>
@@ -22626,7 +22626,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22642,7 +22642,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -24920,15 +24920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>12011</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>173936</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25466,7 +25466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -31249,7 +31249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA78AD8-4EFD-4630-979F-48584542ECA1}">
   <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B4" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>

--- a/01-MULTIPHASE/xls/2024-06-typical-krel-pcap.xlsx
+++ b/01-MULTIPHASE/xls/2024-06-typical-krel-pcap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\res\santos\unbs\gger\er\er01\USR\bfq9\2024-PHD\EDFM\01-MULTIPHASE\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD7E314-6177-4876-8CBE-23B73B3FB6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5608013-DB6F-4C69-8A9C-86985D8A4969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
